--- a/docs/鍵盤設計規格_台語方音V2.xlsx
+++ b/docs/鍵盤設計規格_台語方音V2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\alanjui\workspace\rime\rime-tlpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883B6A28-9F01-4DD0-BAB4-A1F0F26ADA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8763987F-3F90-457C-8ACD-A5DAC0DEBB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{E87E5C8B-EACA-42E9-8621-62DDB8F02212}"/>
   </bookViews>
@@ -14783,10 +14783,10 @@
   </sheetPr>
   <dimension ref="B1:CX99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="W1" sqref="W1"/>
-      <selection pane="bottomLeft" activeCell="S41" sqref="S41"/>
+      <selection pane="bottomLeft" activeCell="AC42" sqref="AC42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" outlineLevelCol="1"/>
@@ -14999,7 +14999,7 @@
       <c r="AE3" s="2"/>
       <c r="AF3" s="361" t="str">
         <f xml:space="preserve"> "  alphabet: '" &amp; _xlfn.CONCAT(AA$3:AA$54) &amp; "'"</f>
-        <v xml:space="preserve">  alphabet: '1!qa2wsxeEdcbyhnBYHN?ujm8ik,9l.0p;:/-OAUJ*I&lt;(L 43657'</v>
+        <v xml:space="preserve">  alphabet: '1!qa2wsxeEdcbyhnBYHN?ujm8ik,9l.0p;/-UJ*I&lt;(LOA: 43657'</v>
       </c>
       <c r="AG3" s="438"/>
       <c r="AH3" s="438"/>
@@ -15095,8 +15095,8 @@
       </c>
       <c r="AE4" s="2"/>
       <c r="AF4" s="361" t="str">
-        <f xml:space="preserve"> "  initials: '" &amp; _xlfn.CONCAT(AA$3:AA$48) &amp; "'"</f>
-        <v xml:space="preserve">  initials: '1!qa2wsxeEdcbyhnBYHN?ujm8ik,9l.0p;:/-OAUJ*I&lt;(L'</v>
+        <f xml:space="preserve"> "  initials: '" &amp; _xlfn.CONCAT(AA$3:AA$45) &amp; "'"</f>
+        <v xml:space="preserve">  initials: '1!qa2wsxeEdcbyhnBYHN?ujm8ik,9l.0p;/-UJ*I&lt;(L'</v>
       </c>
       <c r="AG4" s="438"/>
       <c r="AH4" s="438"/>
@@ -15472,7 +15472,7 @@
       <c r="AG8" s="2"/>
       <c r="AH8" s="457" t="str">
         <f xml:space="preserve"> """xlit|" &amp; AH9 &amp; "|" &amp; AH10 &amp; "|"""</f>
-        <v>"xlit|pbPmtTnlkgKhjzcsJZCSwiuMaOoeyxB@NGHWRDVIUAQEYX123570|1!qa2wsxeEdcbyhnBYHN?ujm8ik,9l.0p;:/-OAUJ*I&lt;(L 43657|"</v>
+        <v>"xlit|pbPmtTnlkgKhjzcsJZCSwiuMaOoeyxB@NGWRIUAQEYXDVH123570|1!qa2wsxeEdcbyhnBYHN?ujm8ik,9l.0p;/-UJ*I&lt;(LOA: 43657|"</v>
       </c>
       <c r="AI8" s="47"/>
       <c r="AJ8" s="47"/>
@@ -15783,7 +15783,7 @@
       </c>
       <c r="AH9" s="37" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(AB$3:AB$54)</f>
-        <v>pbPmtTnlkgKhjzcsJZCSwiuMaOoeyxB@NGHWRDVIUAQEYX123570</v>
+        <v>pbPmtTnlkgKhjzcsJZCSwiuMaOoeyxB@NGWRIUAQEYXDVH123570</v>
       </c>
       <c r="AU9" s="38" t="s">
         <v>25</v>
@@ -15938,51 +15938,51 @@
       </c>
       <c r="CH9" s="444" t="str">
         <f xml:space="preserve"> MID($AH$9, CH$13, 1)</f>
-        <v>H</v>
+        <v>W</v>
       </c>
       <c r="CI9" s="444" t="str">
         <f xml:space="preserve"> MID($AH$9, CI$13, 1)</f>
-        <v>W</v>
+        <v>R</v>
       </c>
       <c r="CJ9" s="444" t="str">
         <f xml:space="preserve"> MID($AH$9, CJ$13, 1)</f>
-        <v>R</v>
+        <v>I</v>
       </c>
       <c r="CK9" s="444" t="str">
         <f xml:space="preserve"> MID($AH$9, CK$13, 1)</f>
-        <v>D</v>
+        <v>U</v>
       </c>
       <c r="CL9" s="444" t="str">
         <f xml:space="preserve"> MID($AH$9, CL$13, 1)</f>
-        <v>V</v>
+        <v>A</v>
       </c>
       <c r="CM9" s="447" t="str">
         <f xml:space="preserve"> MID($AH$9, CM$13, 1)</f>
-        <v>I</v>
+        <v>Q</v>
       </c>
       <c r="CN9" s="447" t="str">
         <f xml:space="preserve"> MID($AH$9, CN$13, 1)</f>
-        <v>U</v>
+        <v>E</v>
       </c>
       <c r="CO9" s="447" t="str">
         <f xml:space="preserve"> MID($AH$9, CO$13, 1)</f>
-        <v>A</v>
+        <v>Y</v>
       </c>
       <c r="CP9" s="447" t="str">
         <f xml:space="preserve"> MID($AH$9, CP$13, 1)</f>
-        <v>Q</v>
+        <v>X</v>
       </c>
       <c r="CQ9" s="447" t="str">
         <f xml:space="preserve"> MID($AH$9, CQ$13, 1)</f>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="CR9" s="463" t="str">
         <f xml:space="preserve"> MID($AH$9, CR$13, 1)</f>
-        <v>Y</v>
+        <v>V</v>
       </c>
       <c r="CS9" s="444" t="str">
         <f xml:space="preserve"> MID($AH$9, CS$13, 1)</f>
-        <v>X</v>
+        <v>H</v>
       </c>
       <c r="CT9" s="444" t="str">
         <f xml:space="preserve"> MID($AH$9, CT$13, 1)</f>
@@ -16093,7 +16093,7 @@
       </c>
       <c r="AH10" s="37" t="str">
         <f>_xlfn.CONCAT(AA3:AA54)</f>
-        <v>1!qa2wsxeEdcbyhnBYHN?ujm8ik,9l.0p;:/-OAUJ*I&lt;(L 43657</v>
+        <v>1!qa2wsxeEdcbyhnBYHN?ujm8ik,9l.0p;/-UJ*I&lt;(LOA: 43657</v>
       </c>
       <c r="AQ10" s="48" t="str">
         <f xml:space="preserve"> MID("/", AG9, 1)</f>
@@ -16247,51 +16247,51 @@
       </c>
       <c r="CH10" s="444" t="str">
         <f xml:space="preserve"> MID($AH$10, CH$13, 1)</f>
-        <v>:</v>
+        <v>/</v>
       </c>
       <c r="CI10" s="444" t="str">
         <f xml:space="preserve"> MID($AH$10, CI$13, 1)</f>
-        <v>/</v>
+        <v>-</v>
       </c>
       <c r="CJ10" s="444" t="str">
         <f xml:space="preserve"> MID($AH$10, CJ$13, 1)</f>
-        <v>-</v>
+        <v>U</v>
       </c>
       <c r="CK10" s="444" t="str">
         <f xml:space="preserve"> MID($AH$10, CK$13, 1)</f>
-        <v>O</v>
+        <v>J</v>
       </c>
       <c r="CL10" s="444" t="str">
         <f xml:space="preserve"> MID($AH$10, CL$13, 1)</f>
-        <v>A</v>
+        <v>*</v>
       </c>
       <c r="CM10" s="447" t="str">
         <f xml:space="preserve"> MID($AH$10, CM$13, 1)</f>
-        <v>U</v>
+        <v>I</v>
       </c>
       <c r="CN10" s="447" t="str">
         <f xml:space="preserve"> MID($AH$10, CN$13, 1)</f>
-        <v>J</v>
+        <v>&lt;</v>
       </c>
       <c r="CO10" s="447" t="str">
         <f xml:space="preserve"> MID($AH$10, CO$13, 1)</f>
-        <v>*</v>
+        <v>(</v>
       </c>
       <c r="CP10" s="447" t="str">
         <f xml:space="preserve"> MID($AH$10, CP$13, 1)</f>
-        <v>I</v>
+        <v>L</v>
       </c>
       <c r="CQ10" s="447" t="str">
         <f xml:space="preserve"> MID($AH$10, CQ$13, 1)</f>
-        <v>&lt;</v>
+        <v>O</v>
       </c>
       <c r="CR10" s="463" t="str">
         <f xml:space="preserve"> MID($AH$10, CR$13, 1)</f>
-        <v>(</v>
+        <v>A</v>
       </c>
       <c r="CS10" s="444" t="str">
         <f xml:space="preserve"> MID($AH$10, CS$13, 1)</f>
-        <v>L</v>
+        <v>:</v>
       </c>
       <c r="CT10" s="444" t="str">
         <f xml:space="preserve"> MID($AH$10, CT$13, 1)</f>
@@ -16576,7 +16576,7 @@
       <c r="AG13" s="2"/>
       <c r="AH13" s="458" t="str">
         <f xml:space="preserve"> """xlit|" &amp; AH14 &amp; "|" &amp; AH15 &amp; "|"""</f>
-        <v>"xlit|1!qa2wsxeEdcbyhnBYHN?ujm8ik,9l.0p;:/-OAUJ*I&lt;(L43657|ㄅㆠㄆㄇㄉㄊㄋㄌㄍㆣㄎㄏㆡㄗㄘㄙㆢㄐㄑㄒㄫㄧㄨㆬㄚㆦㄜㆤㄞㄠｎㄢㄣㄤㆲㆭㆨㆱㆰㆪㆫㆩㆧㆥㆮㆯˋ˪ˊ˫˙|"</v>
+        <v>"xlit|1!qa2wsxeEdcbyhnBYHN?ujm8ik,9l.0p;/-UJ*I&lt;(LOA:43657|ㄅㆠㄆㄇㄉㄊㄋㄌㄍㆣㄎㄏㆡㄗㄘㄙㆢㄐㄑㄒㄫㄧㄨㆬㄚㆦㄜㆤㄞㄠｎㄢㄣㄤㆭㆨㆪㆫㆩㆧㆥㆮㆯㆱㆰㆲˋ˪ˊ˫˙|"</v>
       </c>
       <c r="AI13" s="47"/>
       <c r="AJ13" s="47"/>
@@ -16891,7 +16891,7 @@
       </c>
       <c r="AH14" s="37" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT($AA3:$AA$48, $AA$50:$AA$54)</f>
-        <v>1!qa2wsxeEdcbyhnBYHN?ujm8ik,9l.0p;:/-OAUJ*I&lt;(L43657</v>
+        <v>1!qa2wsxeEdcbyhnBYHN?ujm8ik,9l.0p;/-UJ*I&lt;(LOA:43657</v>
       </c>
       <c r="AU14" s="38" t="s">
         <v>25</v>
@@ -17047,51 +17047,51 @@
       </c>
       <c r="CH14" s="446" t="str">
         <f xml:space="preserve"> MID($AH$14, CH$13, 1)</f>
-        <v>:</v>
+        <v>/</v>
       </c>
       <c r="CI14" s="446" t="str">
         <f xml:space="preserve"> MID($AH$14, CI$13, 1)</f>
-        <v>/</v>
+        <v>-</v>
       </c>
       <c r="CJ14" s="446" t="str">
         <f xml:space="preserve"> MID($AH$14, CJ$13, 1)</f>
-        <v>-</v>
+        <v>U</v>
       </c>
       <c r="CK14" s="446" t="str">
         <f xml:space="preserve"> MID($AH$14, CK$13, 1)</f>
-        <v>O</v>
+        <v>J</v>
       </c>
       <c r="CL14" s="446" t="str">
         <f xml:space="preserve"> MID($AH$14, CL$13, 1)</f>
-        <v>A</v>
+        <v>*</v>
       </c>
       <c r="CM14" s="447" t="str">
         <f xml:space="preserve"> MID($AH$14, CM$13, 1)</f>
-        <v>U</v>
+        <v>I</v>
       </c>
       <c r="CN14" s="447" t="str">
         <f xml:space="preserve"> MID($AH$14, CN$13, 1)</f>
-        <v>J</v>
+        <v>&lt;</v>
       </c>
       <c r="CO14" s="447" t="str">
         <f xml:space="preserve"> MID($AH$14, CO$13, 1)</f>
-        <v>*</v>
+        <v>(</v>
       </c>
       <c r="CP14" s="447" t="str">
         <f xml:space="preserve"> MID($AH$14, CP$13, 1)</f>
-        <v>I</v>
+        <v>L</v>
       </c>
       <c r="CQ14" s="447" t="str">
         <f xml:space="preserve"> MID($AH$14, CQ$13, 1)</f>
-        <v>&lt;</v>
+        <v>O</v>
       </c>
       <c r="CR14" s="447" t="str">
         <f xml:space="preserve"> MID($AH$14, CR$13, 1)</f>
-        <v>(</v>
+        <v>A</v>
       </c>
       <c r="CS14" s="446" t="str">
         <f xml:space="preserve"> MID($AH$14, CS$13, 1)</f>
-        <v>L</v>
+        <v>:</v>
       </c>
       <c r="CT14" s="446" t="str">
         <f xml:space="preserve"> MID($AH$14, CT$13, 1)</f>
@@ -17207,7 +17207,7 @@
       </c>
       <c r="AH15" s="418" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT($AC3:$AC$48, $AC$50:$AC54)</f>
-        <v>ㄅㆠㄆㄇㄉㄊㄋㄌㄍㆣㄎㄏㆡㄗㄘㄙㆢㄐㄑㄒㄫㄧㄨㆬㄚㆦㄜㆤㄞㄠｎㄢㄣㄤㆲㆭㆨㆱㆰㆪㆫㆩㆧㆥㆮㆯˋ˪ˊ˫˙</v>
+        <v>ㄅㆠㄆㄇㄉㄊㄋㄌㄍㆣㄎㄏㆡㄗㄘㄙㆢㄐㄑㄒㄫㄧㄨㆬㄚㆦㄜㆤㄞㄠｎㄢㄣㄤㆭㆨㆪㆫㆩㆧㆥㆮㆯㆱㆰㆲˋ˪ˊ˫˙</v>
       </c>
       <c r="AV15" s="49" t="str">
         <f xml:space="preserve"> MID(AH15, AW14, 1)</f>
@@ -17357,51 +17357,51 @@
       </c>
       <c r="CH15" s="446" t="str">
         <f xml:space="preserve"> MID($AH$15, CH$13, 1)</f>
-        <v>ㆲ</v>
+        <v>ㆭ</v>
       </c>
       <c r="CI15" s="446" t="str">
         <f xml:space="preserve"> MID($AH$15, CI$13, 1)</f>
-        <v>ㆭ</v>
+        <v>ㆨ</v>
       </c>
       <c r="CJ15" s="446" t="str">
         <f xml:space="preserve"> MID($AH$15, CJ$13, 1)</f>
-        <v>ㆨ</v>
+        <v>ㆪ</v>
       </c>
       <c r="CK15" s="446" t="str">
         <f xml:space="preserve"> MID($AH$15, CK$13, 1)</f>
-        <v>ㆱ</v>
+        <v>ㆫ</v>
       </c>
       <c r="CL15" s="446" t="str">
         <f xml:space="preserve"> MID($AH$15, CL$13, 1)</f>
-        <v>ㆰ</v>
+        <v>ㆩ</v>
       </c>
       <c r="CM15" s="447" t="str">
         <f xml:space="preserve"> MID($AH$15, CM$13, 1)</f>
-        <v>ㆪ</v>
+        <v>ㆧ</v>
       </c>
       <c r="CN15" s="447" t="str">
         <f xml:space="preserve"> MID($AH$15, CN$13, 1)</f>
-        <v>ㆫ</v>
+        <v>ㆥ</v>
       </c>
       <c r="CO15" s="447" t="str">
         <f xml:space="preserve"> MID($AH$15, CO$13, 1)</f>
-        <v>ㆩ</v>
+        <v>ㆮ</v>
       </c>
       <c r="CP15" s="447" t="str">
         <f xml:space="preserve"> MID($AH$15, CP$13, 1)</f>
-        <v>ㆧ</v>
+        <v>ㆯ</v>
       </c>
       <c r="CQ15" s="447" t="str">
         <f xml:space="preserve"> MID($AH$15, CQ$13, 1)</f>
-        <v>ㆥ</v>
+        <v>ㆱ</v>
       </c>
       <c r="CR15" s="447" t="str">
         <f xml:space="preserve"> MID($AH$15, CR$13, 1)</f>
-        <v>ㆮ</v>
+        <v>ㆰ</v>
       </c>
       <c r="CS15" s="446" t="str">
         <f xml:space="preserve"> MID($AH$15, CS$13, 1)</f>
-        <v>ㆯ</v>
+        <v>ㆲ</v>
       </c>
       <c r="CT15" s="446" t="str">
         <f xml:space="preserve"> MID($AH$15, CT$13, 1)</f>
@@ -17598,7 +17598,7 @@
       <c r="AG17" s="2"/>
       <c r="AH17" s="459" t="str">
         <f xml:space="preserve"> """xlit|" &amp; AH18 &amp; "|" &amp; AH19 &amp; "|"""</f>
-        <v>"xlit|pbPmtTnlkgKhjzcsJZCSwiuMaOoeyxB@NGHWRDVIUAQEYX123570|ㄅㆠㄆㄇㄉㄊㄋㄌㄍㆣㄎㄏㆡㄗㄘㄙㆢㄐㄑㄒㄫㄧㄨㆬㄚㆦㄜㆤㄞㄠｎㄢㄣㄤㆲㆭㆨㆱㆰㆪㆫㆩㆧㆥㆮㆯˉˋ˪ˊ˫˙|"</v>
+        <v>"xlit|pbPmtTnlkgKhjzcsJZCSwiuMaOoeyxB@NGWRIUAQEYXDVH123570|ㄅㆠㄆㄇㄉㄊㄋㄌㄍㆣㄎㄏㆡㄗㄘㄙㆢㄐㄑㄒㄫㄧㄨㆬㄚㆦㄜㆤㄞㄠｎㄢㄣㄤㆭㆨㆪㆫㆩㆧㆥㆮㆯㆱㆰㆲˉˋ˪ˊ˫˙|"</v>
       </c>
       <c r="AI17" s="47"/>
       <c r="AJ17" s="47"/>
@@ -17703,7 +17703,7 @@
       </c>
       <c r="AH18" s="37" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(AB$3:AB$54)</f>
-        <v>pbPmtTnlkgKhjzcsJZCSwiuMaOoeyxB@NGHWRDVIUAQEYX123570</v>
+        <v>pbPmtTnlkgKhjzcsJZCSwiuMaOoeyxB@NGWRIUAQEYXDVH123570</v>
       </c>
       <c r="AU18" s="38" t="s">
         <v>25</v>
@@ -17805,7 +17805,7 @@
       </c>
       <c r="AH19" s="427" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(AC3:AC54)</f>
-        <v>ㄅㆠㄆㄇㄉㄊㄋㄌㄍㆣㄎㄏㆡㄗㄘㄙㆢㄐㄑㄒㄫㄧㄨㆬㄚㆦㄜㆤㄞㄠｎㄢㄣㄤㆲㆭㆨㆱㆰㆪㆫㆩㆧㆥㆮㆯˉˋ˪ˊ˫˙</v>
+        <v>ㄅㆠㄆㄇㄉㄊㄋㄌㄍㆣㄎㄏㆡㄗㄘㄙㆢㄐㄑㄒㄫㄧㄨㆬㄚㆦㄜㆤㄞㄠｎㄢㄣㄤㆭㆨㆪㆫㆩㆧㆥㆮㆯㆱㆰㆲˉˋ˪ˊ˫˙</v>
       </c>
       <c r="AV19" s="49" t="str">
         <f xml:space="preserve"> MID(AH19, AW18, 1)</f>
@@ -19173,19 +19173,19 @@
         <v>33</v>
       </c>
       <c r="AA35" s="71" t="str">
-        <f t="shared" ref="AA35:AA54" si="18">U35</f>
+        <f t="shared" ref="AA35:AA36" si="18">U35</f>
         <v>p</v>
       </c>
       <c r="AB35" s="379" t="str">
-        <f t="shared" ref="AB35:AB54" si="19">V35</f>
+        <f t="shared" ref="AB35:AB36" si="19">V35</f>
         <v>N</v>
       </c>
       <c r="AC35" s="32" t="str">
-        <f t="shared" ref="AC35:AC54" si="20">W35</f>
+        <f t="shared" ref="AC35:AC36" si="20">W35</f>
         <v>ㄣ</v>
       </c>
       <c r="AD35" s="430" t="str">
-        <f t="shared" ref="AD35:AD54" si="21">X35</f>
+        <f t="shared" ref="AD35:AD36" si="21">X35</f>
         <v>-n</v>
       </c>
       <c r="AE35" s="2"/>
@@ -19343,20 +19343,20 @@
         <v>35</v>
       </c>
       <c r="AA37" s="71" t="str">
-        <f t="shared" si="18"/>
-        <v>:</v>
+        <f>U38</f>
+        <v>/</v>
       </c>
       <c r="AB37" s="379" t="str">
-        <f t="shared" si="19"/>
-        <v>H</v>
+        <f>V38</f>
+        <v>W</v>
       </c>
       <c r="AC37" s="32" t="str">
-        <f t="shared" si="20"/>
-        <v>ㆲ</v>
+        <f>W38</f>
+        <v>ㆭ</v>
       </c>
       <c r="AD37" s="430" t="str">
-        <f t="shared" si="21"/>
-        <v>ong</v>
+        <f>X38</f>
+        <v>-ng</v>
       </c>
       <c r="AE37" s="2"/>
       <c r="AF37" s="421" t="s">
@@ -19428,20 +19428,20 @@
         <v>36</v>
       </c>
       <c r="AA38" s="71" t="str">
-        <f t="shared" si="18"/>
-        <v>/</v>
+        <f>U39</f>
+        <v>-</v>
       </c>
       <c r="AB38" s="379" t="str">
-        <f t="shared" si="19"/>
-        <v>W</v>
+        <f>V39</f>
+        <v>R</v>
       </c>
       <c r="AC38" s="32" t="str">
-        <f t="shared" si="20"/>
-        <v>ㆭ</v>
+        <f>W39</f>
+        <v>ㆨ</v>
       </c>
       <c r="AD38" s="430" t="str">
-        <f t="shared" si="21"/>
-        <v>-ng</v>
+        <f>X39</f>
+        <v>ir</v>
       </c>
       <c r="AE38" s="2"/>
       <c r="AF38" s="421" t="s">
@@ -19513,20 +19513,20 @@
         <v>37</v>
       </c>
       <c r="AA39" s="492" t="str">
-        <f t="shared" si="18"/>
-        <v>-</v>
+        <f>U42</f>
+        <v>U</v>
       </c>
       <c r="AB39" s="493" t="str">
-        <f t="shared" si="19"/>
-        <v>R</v>
+        <f>V42</f>
+        <v>I</v>
       </c>
       <c r="AC39" s="494" t="str">
-        <f t="shared" si="20"/>
-        <v>ㆨ</v>
+        <f>W42</f>
+        <v>ㆪ</v>
       </c>
       <c r="AD39" s="495" t="str">
-        <f t="shared" si="21"/>
-        <v>ir</v>
+        <f>X42</f>
+        <v>inn</v>
       </c>
       <c r="AE39" s="2"/>
       <c r="AF39" s="421" t="s">
@@ -19598,20 +19598,20 @@
         <v>38</v>
       </c>
       <c r="AA40" s="492" t="str">
-        <f t="shared" si="18"/>
-        <v>O</v>
+        <f>U43</f>
+        <v>J</v>
       </c>
       <c r="AB40" s="493" t="str">
-        <f t="shared" si="19"/>
-        <v>D</v>
+        <f>V43</f>
+        <v>U</v>
       </c>
       <c r="AC40" s="494" t="str">
-        <f t="shared" si="20"/>
-        <v>ㆱ</v>
+        <f>W43</f>
+        <v>ㆫ</v>
       </c>
       <c r="AD40" s="495" t="str">
-        <f t="shared" si="21"/>
-        <v>om</v>
+        <f>X43</f>
+        <v>unn</v>
       </c>
       <c r="AE40" s="2"/>
       <c r="AF40" s="421" t="s">
@@ -19683,20 +19683,20 @@
         <v>39</v>
       </c>
       <c r="AA41" s="492" t="str">
-        <f t="shared" si="18"/>
+        <f>U44</f>
+        <v>*</v>
+      </c>
+      <c r="AB41" s="493" t="str">
+        <f>V44</f>
         <v>A</v>
       </c>
-      <c r="AB41" s="493" t="str">
-        <f t="shared" si="19"/>
-        <v>V</v>
-      </c>
       <c r="AC41" s="494" t="str">
-        <f t="shared" si="20"/>
-        <v>ㆰ</v>
+        <f>W44</f>
+        <v>ㆩ</v>
       </c>
       <c r="AD41" s="495" t="str">
-        <f t="shared" si="21"/>
-        <v>am</v>
+        <f>X44</f>
+        <v>ann</v>
       </c>
       <c r="AE41" s="2"/>
       <c r="AF41" s="421" t="s">
@@ -19768,20 +19768,20 @@
         <v>40</v>
       </c>
       <c r="AA42" s="492" t="str">
-        <f t="shared" si="18"/>
-        <v>U</v>
+        <f>U45</f>
+        <v>I</v>
       </c>
       <c r="AB42" s="493" t="str">
-        <f t="shared" si="19"/>
-        <v>I</v>
+        <f>V45</f>
+        <v>Q</v>
       </c>
       <c r="AC42" s="494" t="str">
-        <f t="shared" si="20"/>
-        <v>ㆪ</v>
+        <f>W45</f>
+        <v>ㆧ</v>
       </c>
       <c r="AD42" s="495" t="str">
-        <f t="shared" si="21"/>
-        <v>inn</v>
+        <f>X45</f>
+        <v>onn</v>
       </c>
       <c r="AE42" s="2"/>
       <c r="AF42" s="421" t="s">
@@ -19853,20 +19853,20 @@
         <v>41</v>
       </c>
       <c r="AA43" s="492" t="str">
-        <f t="shared" si="18"/>
-        <v>J</v>
+        <f>U46</f>
+        <v>&lt;</v>
       </c>
       <c r="AB43" s="493" t="str">
-        <f t="shared" si="19"/>
-        <v>U</v>
+        <f>V46</f>
+        <v>E</v>
       </c>
       <c r="AC43" s="494" t="str">
-        <f t="shared" si="20"/>
-        <v>ㆫ</v>
+        <f>W46</f>
+        <v>ㆥ</v>
       </c>
       <c r="AD43" s="495" t="str">
-        <f t="shared" si="21"/>
-        <v>unn</v>
+        <f>X46</f>
+        <v>enn</v>
       </c>
       <c r="AE43" s="88" t="s">
         <v>650</v>
@@ -19940,20 +19940,20 @@
         <v>42</v>
       </c>
       <c r="AA44" s="492" t="str">
-        <f t="shared" si="18"/>
-        <v>*</v>
+        <f>U47</f>
+        <v>(</v>
       </c>
       <c r="AB44" s="493" t="str">
-        <f t="shared" si="19"/>
-        <v>A</v>
+        <f>V47</f>
+        <v>Y</v>
       </c>
       <c r="AC44" s="494" t="str">
-        <f t="shared" si="20"/>
-        <v>ㆩ</v>
+        <f>W47</f>
+        <v>ㆮ</v>
       </c>
       <c r="AD44" s="495" t="str">
-        <f t="shared" si="21"/>
-        <v>ann</v>
+        <f>X47</f>
+        <v>ainn</v>
       </c>
       <c r="AE44" s="2" t="s">
         <v>651</v>
@@ -20017,20 +20017,20 @@
         <v>43</v>
       </c>
       <c r="AA45" s="492" t="str">
-        <f t="shared" si="18"/>
-        <v>I</v>
+        <f>U48</f>
+        <v>L</v>
       </c>
       <c r="AB45" s="493" t="str">
-        <f t="shared" si="19"/>
-        <v>Q</v>
+        <f>V48</f>
+        <v>X</v>
       </c>
       <c r="AC45" s="494" t="str">
-        <f t="shared" si="20"/>
-        <v>ㆧ</v>
+        <f>W48</f>
+        <v>ㆯ</v>
       </c>
       <c r="AD45" s="495" t="str">
-        <f t="shared" si="21"/>
-        <v>onn</v>
+        <f>X48</f>
+        <v>aunn</v>
       </c>
       <c r="AE45" s="2"/>
       <c r="AF45" s="421"/>
@@ -20103,20 +20103,20 @@
         <v>44</v>
       </c>
       <c r="AA46" s="439" t="str">
-        <f t="shared" si="18"/>
-        <v>&lt;</v>
+        <f>U40</f>
+        <v>O</v>
       </c>
       <c r="AB46" s="441" t="str">
-        <f t="shared" si="19"/>
-        <v>E</v>
+        <f>V40</f>
+        <v>D</v>
       </c>
       <c r="AC46" s="440" t="str">
-        <f t="shared" si="20"/>
-        <v>ㆥ</v>
+        <f>W40</f>
+        <v>ㆱ</v>
       </c>
       <c r="AD46" s="442" t="str">
-        <f t="shared" si="21"/>
-        <v>enn</v>
+        <f>X40</f>
+        <v>om</v>
       </c>
       <c r="AE46" s="2"/>
       <c r="AF46" s="421"/>
@@ -20195,20 +20195,20 @@
         <v>45</v>
       </c>
       <c r="AA47" s="439" t="str">
-        <f t="shared" si="18"/>
-        <v>(</v>
+        <f>U41</f>
+        <v>A</v>
       </c>
       <c r="AB47" s="441" t="str">
-        <f t="shared" si="19"/>
-        <v>Y</v>
+        <f>V41</f>
+        <v>V</v>
       </c>
       <c r="AC47" s="440" t="str">
-        <f t="shared" si="20"/>
-        <v>ㆮ</v>
+        <f>W41</f>
+        <v>ㆰ</v>
       </c>
       <c r="AD47" s="442" t="str">
-        <f t="shared" si="21"/>
-        <v>ainn</v>
+        <f>X41</f>
+        <v>am</v>
       </c>
       <c r="AE47" s="2"/>
       <c r="AF47" s="421"/>
@@ -20288,20 +20288,20 @@
         <v>46</v>
       </c>
       <c r="AA48" s="439" t="str">
-        <f t="shared" si="18"/>
-        <v>L</v>
+        <f>U37</f>
+        <v>:</v>
       </c>
       <c r="AB48" s="441" t="str">
-        <f t="shared" si="19"/>
-        <v>X</v>
+        <f>V37</f>
+        <v>H</v>
       </c>
       <c r="AC48" s="440" t="str">
-        <f t="shared" si="20"/>
-        <v>ㆯ</v>
+        <f>W37</f>
+        <v>ㆲ</v>
       </c>
       <c r="AD48" s="442" t="str">
-        <f t="shared" si="21"/>
-        <v>aunn</v>
+        <f>X37</f>
+        <v>ong</v>
       </c>
       <c r="AE48" s="2"/>
       <c r="AF48" s="421"/>
@@ -20377,19 +20377,19 @@
         <v>47</v>
       </c>
       <c r="AA49" s="71" t="str">
-        <f t="shared" si="18"/>
+        <f>U49</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AB49" s="379" t="str">
-        <f t="shared" si="19"/>
+        <f>V49</f>
         <v>1</v>
       </c>
       <c r="AC49" s="32" t="str">
-        <f t="shared" si="20"/>
+        <f>W49</f>
         <v>ˉ</v>
       </c>
       <c r="AD49" s="430">
-        <f t="shared" si="21"/>
+        <f>X49</f>
         <v>1</v>
       </c>
       <c r="AE49" s="2"/>
@@ -20466,19 +20466,19 @@
         <v>48</v>
       </c>
       <c r="AA50" s="71" t="str">
-        <f t="shared" si="18"/>
+        <f>U50</f>
         <v>4</v>
       </c>
       <c r="AB50" s="379" t="str">
-        <f t="shared" si="19"/>
+        <f>V50</f>
         <v>2</v>
       </c>
       <c r="AC50" s="32" t="str">
-        <f t="shared" si="20"/>
+        <f>W50</f>
         <v>ˋ</v>
       </c>
       <c r="AD50" s="430">
-        <f t="shared" si="21"/>
+        <f>X50</f>
         <v>2</v>
       </c>
       <c r="AE50" s="2"/>
@@ -20558,19 +20558,19 @@
         <v>49</v>
       </c>
       <c r="AA51" s="71" t="str">
-        <f t="shared" si="18"/>
+        <f>U51</f>
         <v>3</v>
       </c>
       <c r="AB51" s="379" t="str">
-        <f t="shared" si="19"/>
+        <f>V51</f>
         <v>3</v>
       </c>
       <c r="AC51" s="32" t="str">
-        <f t="shared" si="20"/>
+        <f>W51</f>
         <v>˪</v>
       </c>
       <c r="AD51" s="430">
-        <f t="shared" si="21"/>
+        <f>X51</f>
         <v>3</v>
       </c>
       <c r="AE51" s="2"/>
@@ -20650,19 +20650,19 @@
         <v>50</v>
       </c>
       <c r="AA52" s="71" t="str">
-        <f t="shared" si="18"/>
+        <f>U52</f>
         <v>6</v>
       </c>
       <c r="AB52" s="379" t="str">
-        <f t="shared" si="19"/>
+        <f>V52</f>
         <v>5</v>
       </c>
       <c r="AC52" s="32" t="str">
-        <f t="shared" si="20"/>
+        <f>W52</f>
         <v>ˊ</v>
       </c>
       <c r="AD52" s="430">
-        <f t="shared" si="21"/>
+        <f>X52</f>
         <v>5</v>
       </c>
       <c r="AE52" s="2"/>
@@ -20739,19 +20739,19 @@
         <v>51</v>
       </c>
       <c r="AA53" s="71" t="str">
-        <f t="shared" si="18"/>
+        <f>U53</f>
         <v>5</v>
       </c>
       <c r="AB53" s="379" t="str">
-        <f t="shared" si="19"/>
+        <f>V53</f>
         <v>7</v>
       </c>
       <c r="AC53" s="32" t="str">
-        <f t="shared" si="20"/>
+        <f>W53</f>
         <v>˫</v>
       </c>
       <c r="AD53" s="430">
-        <f t="shared" si="21"/>
+        <f>X53</f>
         <v>7</v>
       </c>
       <c r="AE53" s="2"/>
@@ -20828,19 +20828,19 @@
         <v>52</v>
       </c>
       <c r="AA54" s="71" t="str">
-        <f t="shared" si="18"/>
+        <f>U54</f>
         <v>7</v>
       </c>
       <c r="AB54" s="379" t="str">
-        <f t="shared" si="19"/>
+        <f>V54</f>
         <v>0</v>
       </c>
       <c r="AC54" s="32" t="str">
-        <f t="shared" si="20"/>
+        <f>W54</f>
         <v>˙</v>
       </c>
       <c r="AD54" s="430" t="str">
-        <f t="shared" si="21"/>
+        <f>X54</f>
         <v>[48]</v>
       </c>
       <c r="AE54" s="2"/>
